--- a/biology/Médecine/Arthur_Schnitzler/Arthur_Schnitzler.xlsx
+++ b/biology/Médecine/Arthur_Schnitzler/Arthur_Schnitzler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Schnitzler, né le 15 mai 1862 à Vienne, où il meurt le 21 octobre 1931, est un écrivain et médecin autrichien.
 Il est l'un des auteurs les plus importants de la littérature de langue allemande de la première moitié du XXe siècle en Autriche-Hongrie.
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur Schnitzler naît à Leopoldstadt, 2e arrondissement de Vienne, dans une famille juive : sa mère Luise, née Markbreiter (1838–1911), est la fille d’un médecin localement réputé qui dirigeait une revue médicale et son père Johann Schnitzler (de) (1835–1893), d'origine hongroise, est un laryngologue renommé, dont la patientèle, principalement constituée de comédiens et de cantatrices, donne au jeune Arthur le goût du théâtre. À treize ans, il a déjà écrit près de vingt pièces de théâtre dans différents genres mais il poursuit la vocation familiale en devenant médecin à 23 ans puis laryngologue ; son frère Julius devient chirurgien, et sa sœur Gisela épouse un médecin du nom de Markus Hajek. Seul le grand-père paternel, Josef Schnitzler « était un bon menuisier-charpentier, mais ivrogne notoire, quelque part en Hongrie »[2].
-De 1879 à 1882, il étudie à la Faculté de médecine, tout en accomplissant un travail éditorial (rémunéré 20 gulden par mois) dans la revue médicale de son père[3]. En 1882-1883, il accomplit un « service militaire d'un an comme “volontaire” à Vienne (Hôpital militaire no 1) »[3]. Il obtient son doctorat de médecine en 1885. En 1886, « déclaré tuberculeux, il est envoyé à Meran » où il rencontre Olga Waissnix qui l'encourage dans ses débuts littéraires[3]. Il commence de publier dans des revues des poèmes et de brefs textes en prose[3].
-Après plusieurs emplois (1887-1888) dans différents services (neurologie, psychiatrie, dermatologie et maladies vénériennes, chirurgie) et un stage de laryngoscopie à Berlin, il  entre « à la Polyclinique générale comme assistant de son père » en septembre 1888. « Il expérimente l'hypnose »[3]. 
-Durant son emploi comme assistant en psychiatrie (service du Professeur Meynert) en novembre 1886, il a rendu compte « des Leçons sur les maladies du système nerveux, de Charcot, ouvrage traduit par Sigmund Freud »[3].
-À la mort de son père, qui survient le 2 mai 1893, à l'âge de cinquante-huit ans, « il quitte la Polyclinique et ouvre un cabinet médical », il achète une bicyclette qui va représenter une nouvelle liberté pour lui. Il voyage (pour des randonnées à pied ou à bicyclette) en Autriche, en Allemagne, en Suisse et Italie du Nord, souvent en compagnie d'amis comme Beer-Hofmann et Hofmannsthal[4].
-Dans sa vie, plusieurs femmes ont été ses compagnes : Olga Waissnix (1862-1897), Marie Reinhard (1871-1899), Olga Gussmann (1882-1970) [qu'il épouse en 1903]. Les vingt années qui suivent sa consécration sociale (achat, le 26 août 1903, d'une « très belle maison de la Sternwartestrasse où il habitera jusqu'à sa mort » et création, le 14 septembre 1911, de Das Weite Land, Terre étrangère, joué dans neuf théâtres de langue allemande) sont « assombries par la guerre, l'évolution politique, mais aussi son divorce (26 juin 1926) et le suicide de sa fille Lili, à dix-neuf ans (26 juillet 1928) »[2],[5].
-Arthur Schnitzler meurt le 21 octobre 1931 à Vienne d'une hémorragie cérébrale. Il est enterré au cimetière central de Vienne[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur Schnitzler naît à Leopoldstadt, 2e arrondissement de Vienne, dans une famille juive : sa mère Luise, née Markbreiter (1838–1911), est la fille d’un médecin localement réputé qui dirigeait une revue médicale et son père Johann Schnitzler (de) (1835–1893), d'origine hongroise, est un laryngologue renommé, dont la patientèle, principalement constituée de comédiens et de cantatrices, donne au jeune Arthur le goût du théâtre. À treize ans, il a déjà écrit près de vingt pièces de théâtre dans différents genres mais il poursuit la vocation familiale en devenant médecin à 23 ans puis laryngologue ; son frère Julius devient chirurgien, et sa sœur Gisela épouse un médecin du nom de Markus Hajek. Seul le grand-père paternel, Josef Schnitzler « était un bon menuisier-charpentier, mais ivrogne notoire, quelque part en Hongrie ».
+De 1879 à 1882, il étudie à la Faculté de médecine, tout en accomplissant un travail éditorial (rémunéré 20 gulden par mois) dans la revue médicale de son père. En 1882-1883, il accomplit un « service militaire d'un an comme “volontaire” à Vienne (Hôpital militaire no 1) ». Il obtient son doctorat de médecine en 1885. En 1886, « déclaré tuberculeux, il est envoyé à Meran » où il rencontre Olga Waissnix qui l'encourage dans ses débuts littéraires. Il commence de publier dans des revues des poèmes et de brefs textes en prose.
+Après plusieurs emplois (1887-1888) dans différents services (neurologie, psychiatrie, dermatologie et maladies vénériennes, chirurgie) et un stage de laryngoscopie à Berlin, il  entre « à la Polyclinique générale comme assistant de son père » en septembre 1888. « Il expérimente l'hypnose ». 
+Durant son emploi comme assistant en psychiatrie (service du Professeur Meynert) en novembre 1886, il a rendu compte « des Leçons sur les maladies du système nerveux, de Charcot, ouvrage traduit par Sigmund Freud ».
+À la mort de son père, qui survient le 2 mai 1893, à l'âge de cinquante-huit ans, « il quitte la Polyclinique et ouvre un cabinet médical », il achète une bicyclette qui va représenter une nouvelle liberté pour lui. Il voyage (pour des randonnées à pied ou à bicyclette) en Autriche, en Allemagne, en Suisse et Italie du Nord, souvent en compagnie d'amis comme Beer-Hofmann et Hofmannsthal.
+Dans sa vie, plusieurs femmes ont été ses compagnes : Olga Waissnix (1862-1897), Marie Reinhard (1871-1899), Olga Gussmann (1882-1970) [qu'il épouse en 1903]. Les vingt années qui suivent sa consécration sociale (achat, le 26 août 1903, d'une « très belle maison de la Sternwartestrasse où il habitera jusqu'à sa mort » et création, le 14 septembre 1911, de Das Weite Land, Terre étrangère, joué dans neuf théâtres de langue allemande) sont « assombries par la guerre, l'évolution politique, mais aussi son divorce (26 juin 1926) et le suicide de sa fille Lili, à dix-neuf ans (26 juillet 1928) »,.
+Arthur Schnitzler meurt le 21 octobre 1931 à Vienne d'une hémorragie cérébrale. Il est enterré au cimetière central de Vienne.
 </t>
         </is>
       </c>
@@ -549,17 +563,11 @@
           <t>Aspects de l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Schnitzler est l'auteur de pièces de théâtre, de nouvelles, de romans ainsi que d'importants journaux personnels.
-Le groupe « Jeune Vienne »
-Jacques Le Rider le situe  dans « le groupe Jeune Vienne » dont font également partie Hugo von Hofmannsthal et Stefan Zweig. Il estime que « l'œuvre considérable du romancier et dramaturge Arthur Schnitzler », qui « fut aussi l'auteur d'un des journaux personnels les plus considérables du XXe siècle », fut « dans toutes les phases de sa production, un moraliste sans indulgence et analyste pessimiste de la dégradation des valeurs individuelles et culturelles »[7].
-Schnitzler et la psychanalyse
-Parmi les premiers psychanalystes, Theodor Reik consacra l'un de ses ouvrages à « Arthur Schnitzler psychologue » (Arthur Schnitzler als Psycholog, 1913)[8].
-En tant que médecin assistant à l'hôpital général et à la policlinique de Vienne à partir de septembre 1885, Schnitzler avait travaillé dans le service du psychiatre Theodor Meynert, qui était un « familier des techniques psychothérapeutiques de l'hypnose et de la suggestion » : son œuvre est ainsi parsemée « d'études de cas qui semblent sorties des annales de la clinique », de sorte qu'il a souvent été considéré comme le « double » de Sigmund Freud[7]. En fait, précise Jacques Le Rider, « c'est le fondateur de la psychanalyse en personne qui rendait hommage à l'auteur Schnitzler en saluant en lui son Doppelgänger » [7],[9],[10]. Sur cette « métaphore du double » qu'il emploie dans la lettre du 14.5.1922 adressée à Schnitzler pour son 60e anniversaire, Susanne Hartung relève que trois ans auparavant, en 1919, Sigmund Freud s'était déjà longuement occupé du motif du double dans son essai L'Inquiétante Étrangeté[10].
-De son côté, Arthur Schnitzler a lu attentivement les principaux ouvrages de Freud, mais il porte « sur la psychanalyse le même regard de moraliste que sur la vie psychologique de ses personnages »[7]. Pour Schnitzler en effet, l'inconscient et le « destin des pulsions » sont « une construction théorique susceptible de servir de disculpation » et même de justification à « l'amoralité du désir »[7].
-Arthur Schnitzler et la censure
-Certaines de ses pièces et de ses nouvelles le firent avoir affaire à la censure en raison de thèmes abordés comme la sexualité, l'antisémitisme ou la  critique de l'armée (Le Sous-lieutenant Gustel). Sa pièce La Ronde (Der Reigen), écrite en 1896, déclencha un scandale à sa première représentation en 1921 à Berlin et donna lieu à un procès[6].
 </t>
         </is>
       </c>
@@ -585,14 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Réception</t>
+          <t>Aspects de l'œuvre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon Isa Schwentner, professeur de germanistique à l'université de Vienne, « Arthur Schnitzler est très populaire en Autriche, car la trame historique de son œuvre s'appuie sur la monarchie des Habsbourgs et la Première République, avec des récits et des drames qui se réfèrent à l'histoire du pays »[11].
-En France, l'œuvre théâtrale d'Arthur Schnitzler est moins connue — mis à part La Ronde — que les nouvelles de l'écrivain : « Sur la quarantaine de pièces qu’il a écrites, combien en connaît-on, en France ? Sur son rapport à l’écriture dramatique, à la représentation théâtrale, que sait-on ? », interroge Heinz Schwarzinger en 1989[12].
-L'étude de Karl Zieger « centrée sur une première période de la réception de Schnitzler en France, de 1894 à 1938 » montre que la reconnaissance de l'auteur Arthur Schnitzler en France « ne fut pas immédiate ». C'est à partir des années 1980 que Schnitzler commence d'être abondamment traduit, estime Jacques Le Rider dans un compte-rendu de l'ouvrage de Zieger qui, selon lui, est destiné à devenir non seulement « un ouvrage de référence de la Schnitzler-Forschung [la “recherche sur Schnitzler”] », mais également un ouvrage « incontournable pour tous les travaux consacrés à l’histoire interculturelle du voisinage européen France-Autriche ». Le Rider considère que la découverte par le public français de l'importance de l'œuvre d'Arthur Schnitzler depuis les années 1980 coïncide avec celle de la « modernité viennoise », à l'occasion par exemple de l’exposition « L’Apocalypse joyeuse » du Centre Pompidou. Parmi les auteurs autrichiens les plus connus, Arthur Schnitzler ne serait plus à présent « surpassé dans la faveur du public français que par Stefan Zweig »[13].
+          <t>Le groupe « Jeune Vienne »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Le Rider le situe  dans « le groupe Jeune Vienne » dont font également partie Hugo von Hofmannsthal et Stefan Zweig. Il estime que « l'œuvre considérable du romancier et dramaturge Arthur Schnitzler », qui « fut aussi l'auteur d'un des journaux personnels les plus considérables du XXe siècle », fut « dans toutes les phases de sa production, un moraliste sans indulgence et analyste pessimiste de la dégradation des valeurs individuelles et culturelles ».
 </t>
         </is>
       </c>
@@ -618,22 +630,179 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aspects de l'œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Schnitzler et la psychanalyse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les premiers psychanalystes, Theodor Reik consacra l'un de ses ouvrages à « Arthur Schnitzler psychologue » (Arthur Schnitzler als Psycholog, 1913).
+En tant que médecin assistant à l'hôpital général et à la policlinique de Vienne à partir de septembre 1885, Schnitzler avait travaillé dans le service du psychiatre Theodor Meynert, qui était un « familier des techniques psychothérapeutiques de l'hypnose et de la suggestion » : son œuvre est ainsi parsemée « d'études de cas qui semblent sorties des annales de la clinique », de sorte qu'il a souvent été considéré comme le « double » de Sigmund Freud. En fait, précise Jacques Le Rider, « c'est le fondateur de la psychanalyse en personne qui rendait hommage à l'auteur Schnitzler en saluant en lui son Doppelgänger » . Sur cette « métaphore du double » qu'il emploie dans la lettre du 14.5.1922 adressée à Schnitzler pour son 60e anniversaire, Susanne Hartung relève que trois ans auparavant, en 1919, Sigmund Freud s'était déjà longuement occupé du motif du double dans son essai L'Inquiétante Étrangeté.
+De son côté, Arthur Schnitzler a lu attentivement les principaux ouvrages de Freud, mais il porte « sur la psychanalyse le même regard de moraliste que sur la vie psychologique de ses personnages ». Pour Schnitzler en effet, l'inconscient et le « destin des pulsions » sont « une construction théorique susceptible de servir de disculpation » et même de justification à « l'amoralité du désir ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspects de l'œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arthur Schnitzler et la censure</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines de ses pièces et de ses nouvelles le firent avoir affaire à la censure en raison de thèmes abordés comme la sexualité, l'antisémitisme ou la  critique de l'armée (Le Sous-lieutenant Gustel). Sa pièce La Ronde (Der Reigen), écrite en 1896, déclencha un scandale à sa première représentation en 1921 à Berlin et donna lieu à un procès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Isa Schwentner, professeur de germanistique à l'université de Vienne, « Arthur Schnitzler est très populaire en Autriche, car la trame historique de son œuvre s'appuie sur la monarchie des Habsbourgs et la Première République, avec des récits et des drames qui se réfèrent à l'histoire du pays ».
+En France, l'œuvre théâtrale d'Arthur Schnitzler est moins connue — mis à part La Ronde — que les nouvelles de l'écrivain : « Sur la quarantaine de pièces qu’il a écrites, combien en connaît-on, en France ? Sur son rapport à l’écriture dramatique, à la représentation théâtrale, que sait-on ? », interroge Heinz Schwarzinger en 1989.
+L'étude de Karl Zieger « centrée sur une première période de la réception de Schnitzler en France, de 1894 à 1938 » montre que la reconnaissance de l'auteur Arthur Schnitzler en France « ne fut pas immédiate ». C'est à partir des années 1980 que Schnitzler commence d'être abondamment traduit, estime Jacques Le Rider dans un compte-rendu de l'ouvrage de Zieger qui, selon lui, est destiné à devenir non seulement « un ouvrage de référence de la Schnitzler-Forschung [la “recherche sur Schnitzler”] », mais également un ouvrage « incontournable pour tous les travaux consacrés à l’histoire interculturelle du voisinage européen France-Autriche ». Le Rider considère que la découverte par le public français de l'importance de l'œuvre d'Arthur Schnitzler depuis les années 1980 coïncide avec celle de la « modernité viennoise », à l'occasion par exemple de l’exposition « L’Apocalypse joyeuse » du Centre Pompidou. Parmi les auteurs autrichiens les plus connus, Arthur Schnitzler ne serait plus à présent « surpassé dans la faveur du public français que par Stefan Zweig ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Principales œuvres
-Théâtre
-1893 : Anatol
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Principales œuvres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1893 : Anatol
 1896 : Liebelei [« Amourette »]
 1897 : Reigen (La Ronde)
 1898 : Der grüne Kakadu [« Le Cacatoès vert »]
 1903 : Der einsame Weg (Le Chemin solitaire)
 1911 : Das weite Land (litt.: « Le vaste pays  ». Adaptation française sous le titre : Terre étrangère)
-1912 : Professor Bernhardi
-Nouvelles
-1892 : Sterben (Mourir)
+1912 : Professor Bernhardi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Principales œuvres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1892 : Sterben (Mourir)
 1900 : Frau Bertha Garlan (Berthe Garland)
 1900 : Leutnant Gustl (Le sous-lieutenant Gustel)
 1902 : Die Fremde (L'Étrangère)
@@ -641,16 +810,129 @@
 1918 : Casanovas Heimfahrt (Le Retour de Casanova)
 1924 : Fräulein Else (Mademoiselle Else)
 1926 : Traumnovelle (Double rêve, Rivages)
-1926 : Spiel im Morgengrauen (Les Dernières Cartes)
-Romans
-1907 : Der Weg ins Freie (Vienne au crépuscule)
-1928 : Therese. Chronik eines Frauenlebens (Thérèse)
-Éditions et traductions en français
-Théâtre
-La Ronde , Stock
-Le Chemin solitaire, Actes Sud
-Nouvelles, romans
-Romans et nouvelles (2 tomes), Le Livre de poche « La Pochothèque » Collection « Classiques modernes », édition préfacée, établie et annotée par Brigitte Vergne-Cain et Gérard Rudent, © 1994, Librairie Générale Française (pour la présentation et les notes du tome I); © 1996, Librairie Générale Française (pour la préface, les notices et les notes du tome II).
+1926 : Spiel im Morgengrauen (Les Dernières Cartes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Principales œuvres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1907 : Der Weg ins Freie (Vienne au crépuscule)
+1928 : Therese. Chronik eines Frauenlebens (Thérèse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Éditions et traductions en français</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Ronde , Stock
+Le Chemin solitaire, Actes Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Éditions et traductions en français</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nouvelles, romans</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Romans et nouvelles (2 tomes), Le Livre de poche « La Pochothèque » Collection « Classiques modernes », édition préfacée, établie et annotée par Brigitte Vergne-Cain et Gérard Rudent, © 1994, Librairie Générale Française (pour la présentation et les notes du tome I); © 1996, Librairie Générale Française (pour la préface, les notices et les notes du tome II).
 Tome I. 1885-1908: Traductions de M. Rémon, W. Bauer et S. Clauser, D. Auclères  R. Dumont, P. Forget et P. Gallissaires
 Tome II. 1909-1931: Traductions de D. Auclères, H. Christophe, P. Forget, P. Gallissaires, A. Hella et O. Bournac, P. Hofer-Butry, M. Rémon, B. Vergne-Cain et G. Rudent
 Contenu du tome I 1885-1908
@@ -717,9 +999,47 @@
 Les Dernières Cartes, suivi de Rien qu'un rêve  (trad. Dominique Auclères), Paris, Calmann-Lévy, 1953, 279 p.
 Le Sous-Lieutenant Gustel, traduction Maël Renouard, Sillage, 2009
 Les Dernières Cartes, traduction Brice Germain, Sillage, 2009
-Gloire tardive (Später Ruhm), traduit de l’allemand par Bernard Kreiss, Albin Michel, inédit, 2016,  (ISBN 2226317333)
-Carnets, journal, correspondance
-Relations et Solitudes. Aphorismes (Beziehungen und Einsamkeiten, Fischer, 1987) , « Rivages Poche », traduction Pierre Deshusses, 1991  (ISBN 2-86930-190-1)
+Gloire tardive (Später Ruhm), traduit de l’allemand par Bernard Kreiss, Albin Michel, inédit, 2016,  (ISBN 2226317333)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Éditions et traductions en français</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Carnets, journal, correspondance</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Relations et Solitudes. Aphorismes (Beziehungen und Einsamkeiten, Fischer, 1987) , « Rivages Poche », traduction Pierre Deshusses, 1991  (ISBN 2-86930-190-1)
 La Transparence impossible, « Rivages Poche », traduction Pierre Deshusses, 1992
 Journal (1923-1926), Rivages Poche, traduction Philippe Ivernel, 2012
 Avec Stefan Zweig, Correspondance, « Rivages Poche », traduction Gisella Hauer et Didier Plassard, 2001
@@ -727,31 +1047,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Arthur_Schnitzler</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Les œuvres de Schnitzler ont fait l'objet de plusieurs adaptations, principalement cinématographiques :
 Fräulein Else
@@ -772,69 +1094,111 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Arthur_Schnitzler</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Mises en scène théâtrales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Terre étrangère - Texte français établi par Michel Butel avec la collaboration de Luc Bondy - Mise en scène Luc Bondy - Théâtre des Amandiers, Nanterre - 1984
-Derniers masques (Les derniers masques et La grande scène) Adaptation française Gabrielle Brennen et Henri Christophe - Mise en scène Gilles Gleizes - Théâtre 13 - 1987[14]
+Derniers masques (Les derniers masques et La grande scène) Adaptation française Gabrielle Brennen et Henri Christophe - Mise en scène Gilles Gleizes - Théâtre 13 - 1987
 Le Chemin solitaire - Mise en scène Luc Bondy - Théâtre du Rond-Point Festival d'Automne - 1989
-Extinction - Adaptation et mise en scène[15] Julien Gosselin - Théâtre de la Ville Sarah-Bernhardt, Paris - 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Arthur_Schnitzler</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Extinction - Adaptation et mise en scène Julien Gosselin - Théâtre de la Ville Sarah-Bernhardt, Paris - 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« schnitzlérien »
-L'adjectif associé à son œuvre et à sa pensée est « schnitzlerien » ou « schnitzlérien ».
-Descendance
-Arthur Schnitzler est le grand-père de l'écologiste et violoniste Michael Schnitzler.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>« schnitzlérien »</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adjectif associé à son œuvre et à sa pensée est « schnitzlerien » ou « schnitzlérien ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Schnitzler</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Descendance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthur Schnitzler est le grand-père de l'écologiste et violoniste Michael Schnitzler.
 </t>
         </is>
       </c>
